--- a/artfynd/A 42134-2020.xlsx
+++ b/artfynd/A 42134-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,2550 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112379418</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90099</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>760</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>616544</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7220144</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112379420</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>616535</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7220125</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112379414</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>616567</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7220205</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112379407</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>616516</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7220340</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112379392</v>
+      </c>
+      <c r="B7" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>616797</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7220278</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112379406</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90099</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>760</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>616530</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7220354</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112379405</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78228</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>616558</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7220391</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112379404</v>
+      </c>
+      <c r="B10" t="n">
+        <v>77389</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>616559</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7220391</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112379413</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>616565</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7220210</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112379397</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77388</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>616824</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7220321</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112379409</v>
+      </c>
+      <c r="B13" t="n">
+        <v>77039</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6437</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Calicium denigratum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>616503</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7220346</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112379393</v>
+      </c>
+      <c r="B14" t="n">
+        <v>89535</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>616793</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7220301</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112379400</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89758</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lateritticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Postia lateritia</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Renvall</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>616665</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7220383</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112379396</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79566</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Microcalicium ahlneri</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>616825</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7220323</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112379391</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89485</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>112</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>616775</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7220246</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112379401</v>
+      </c>
+      <c r="B18" t="n">
+        <v>94287</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>53</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>616593</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7220379</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112379399</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>616801</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7220436</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112379411</v>
+      </c>
+      <c r="B20" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>616537</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7220266</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112379419</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>616545</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7220142</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112379410</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>616528</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7220271</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112379415</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>616569</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7220196</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112379412</v>
+      </c>
+      <c r="B24" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>616546</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7220243</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112379416</v>
+      </c>
+      <c r="B25" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>616572</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7220163</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112379417</v>
+      </c>
+      <c r="B26" t="n">
+        <v>78732</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Klodden, Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>616541</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7220145</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 42134-2020.xlsx
+++ b/artfynd/A 42134-2020.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112379418</v>
+        <v>112379419</v>
       </c>
       <c r="B3" t="n">
-        <v>90099</v>
+        <v>78713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>616544</v>
+        <v>616545</v>
       </c>
       <c r="R3" t="n">
-        <v>7220144</v>
+        <v>7220142</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112379420</v>
+        <v>112379391</v>
       </c>
       <c r="B4" t="n">
-        <v>78699</v>
+        <v>89499</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -919,21 +919,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>112</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>616535</v>
+        <v>616775</v>
       </c>
       <c r="R4" t="n">
-        <v>7220125</v>
+        <v>7220246</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112379414</v>
+        <v>112379410</v>
       </c>
       <c r="B5" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>616567</v>
+        <v>616528</v>
       </c>
       <c r="R5" t="n">
-        <v>7220205</v>
+        <v>7220271</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112379407</v>
+        <v>112379401</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>94301</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1131,21 +1131,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>616516</v>
+        <v>616593</v>
       </c>
       <c r="R6" t="n">
-        <v>7220340</v>
+        <v>7220379</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112379392</v>
+        <v>112379413</v>
       </c>
       <c r="B7" t="n">
-        <v>77636</v>
+        <v>89553</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1237,21 +1237,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616797</v>
+        <v>616565</v>
       </c>
       <c r="R7" t="n">
-        <v>7220278</v>
+        <v>7220210</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112379406</v>
+        <v>112379399</v>
       </c>
       <c r="B8" t="n">
-        <v>90099</v>
+        <v>90826</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1339,25 +1339,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>760</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616530</v>
+        <v>616801</v>
       </c>
       <c r="R8" t="n">
-        <v>7220354</v>
+        <v>7220436</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112379405</v>
+        <v>112379418</v>
       </c>
       <c r="B9" t="n">
-        <v>78228</v>
+        <v>90113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1445,25 +1445,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>760</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>616558</v>
+        <v>616544</v>
       </c>
       <c r="R9" t="n">
-        <v>7220391</v>
+        <v>7220144</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112379404</v>
+        <v>112379416</v>
       </c>
       <c r="B10" t="n">
-        <v>77389</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1555,21 +1555,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>616559</v>
+        <v>616572</v>
       </c>
       <c r="R10" t="n">
-        <v>7220391</v>
+        <v>7220163</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112379413</v>
+        <v>112379415</v>
       </c>
       <c r="B11" t="n">
-        <v>89539</v>
+        <v>78713</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1661,21 +1661,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>616565</v>
+        <v>616569</v>
       </c>
       <c r="R11" t="n">
-        <v>7220210</v>
+        <v>7220196</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112379397</v>
+        <v>112379417</v>
       </c>
       <c r="B12" t="n">
-        <v>77388</v>
+        <v>78746</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1763,25 +1763,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>6463</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>616824</v>
+        <v>616541</v>
       </c>
       <c r="R12" t="n">
-        <v>7220321</v>
+        <v>7220145</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112379409</v>
+        <v>112379411</v>
       </c>
       <c r="B13" t="n">
-        <v>77039</v>
+        <v>78713</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1873,21 +1873,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6437</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>616503</v>
+        <v>616537</v>
       </c>
       <c r="R13" t="n">
-        <v>7220346</v>
+        <v>7220266</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112379393</v>
+        <v>112379409</v>
       </c>
       <c r="B14" t="n">
-        <v>89535</v>
+        <v>77053</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>6437</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>616793</v>
+        <v>616503</v>
       </c>
       <c r="R14" t="n">
-        <v>7220301</v>
+        <v>7220346</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112379400</v>
+        <v>112379396</v>
       </c>
       <c r="B15" t="n">
-        <v>89758</v>
+        <v>79580</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2081,25 +2081,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5260</v>
+        <v>1049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lateritticka</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Postia lateritia</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Renvall</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>616665</v>
+        <v>616825</v>
       </c>
       <c r="R15" t="n">
-        <v>7220383</v>
+        <v>7220323</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112379396</v>
+        <v>112379400</v>
       </c>
       <c r="B16" t="n">
-        <v>79566</v>
+        <v>89772</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2187,25 +2187,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1049</v>
+        <v>5260</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Lateritticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Postia lateritia</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Renvall</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>616825</v>
+        <v>616665</v>
       </c>
       <c r="R16" t="n">
-        <v>7220323</v>
+        <v>7220383</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112379391</v>
+        <v>112379420</v>
       </c>
       <c r="B17" t="n">
-        <v>89485</v>
+        <v>78713</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2297,21 +2297,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>112</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>616775</v>
+        <v>616535</v>
       </c>
       <c r="R17" t="n">
-        <v>7220246</v>
+        <v>7220125</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112379401</v>
+        <v>112379406</v>
       </c>
       <c r="B18" t="n">
-        <v>94287</v>
+        <v>90113</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2399,25 +2399,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>760</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>616593</v>
+        <v>616530</v>
       </c>
       <c r="R18" t="n">
-        <v>7220379</v>
+        <v>7220354</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112379399</v>
+        <v>112379407</v>
       </c>
       <c r="B19" t="n">
-        <v>90812</v>
+        <v>78713</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2505,25 +2505,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4366</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>616801</v>
+        <v>616516</v>
       </c>
       <c r="R19" t="n">
-        <v>7220436</v>
+        <v>7220340</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112379411</v>
+        <v>112379405</v>
       </c>
       <c r="B20" t="n">
-        <v>78699</v>
+        <v>78242</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2615,21 +2615,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>616537</v>
+        <v>616558</v>
       </c>
       <c r="R20" t="n">
-        <v>7220266</v>
+        <v>7220391</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112379419</v>
+        <v>112379397</v>
       </c>
       <c r="B21" t="n">
-        <v>78699</v>
+        <v>77402</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2721,21 +2721,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>616545</v>
+        <v>616824</v>
       </c>
       <c r="R21" t="n">
-        <v>7220142</v>
+        <v>7220321</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112379410</v>
+        <v>112379393</v>
       </c>
       <c r="B22" t="n">
-        <v>78699</v>
+        <v>89549</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2827,21 +2827,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2851,10 +2851,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>616528</v>
+        <v>616793</v>
       </c>
       <c r="R22" t="n">
-        <v>7220271</v>
+        <v>7220301</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112379415</v>
+        <v>112379412</v>
       </c>
       <c r="B23" t="n">
-        <v>78699</v>
+        <v>89553</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2933,21 +2933,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>616569</v>
+        <v>616546</v>
       </c>
       <c r="R23" t="n">
-        <v>7220196</v>
+        <v>7220243</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112379412</v>
+        <v>112379414</v>
       </c>
       <c r="B24" t="n">
-        <v>89539</v>
+        <v>78713</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3039,21 +3039,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>616546</v>
+        <v>616567</v>
       </c>
       <c r="R24" t="n">
-        <v>7220243</v>
+        <v>7220205</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112379416</v>
+        <v>112379392</v>
       </c>
       <c r="B25" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3169,10 +3169,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>616572</v>
+        <v>616797</v>
       </c>
       <c r="R25" t="n">
-        <v>7220163</v>
+        <v>7220278</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112379417</v>
+        <v>112379404</v>
       </c>
       <c r="B26" t="n">
-        <v>78732</v>
+        <v>77403</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3247,25 +3247,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6463</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3275,10 +3275,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>616541</v>
+        <v>616559</v>
       </c>
       <c r="R26" t="n">
-        <v>7220145</v>
+        <v>7220391</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>

--- a/artfynd/A 42134-2020.xlsx
+++ b/artfynd/A 42134-2020.xlsx
@@ -1751,10 +1751,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112379417</v>
+        <v>112379411</v>
       </c>
       <c r="B12" t="n">
-        <v>78746</v>
+        <v>78713</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1763,25 +1763,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>616541</v>
+        <v>616537</v>
       </c>
       <c r="R12" t="n">
-        <v>7220145</v>
+        <v>7220266</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112379411</v>
+        <v>112379417</v>
       </c>
       <c r="B13" t="n">
-        <v>78713</v>
+        <v>78746</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1869,25 +1869,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>616537</v>
+        <v>616541</v>
       </c>
       <c r="R13" t="n">
-        <v>7220266</v>
+        <v>7220145</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 42134-2020.xlsx
+++ b/artfynd/A 42134-2020.xlsx
@@ -797,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112379419</v>
+        <v>112379407</v>
       </c>
       <c r="B3" t="n">
         <v>78713</v>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>616545</v>
+        <v>616516</v>
       </c>
       <c r="R3" t="n">
-        <v>7220142</v>
+        <v>7220340</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112379391</v>
+        <v>112379409</v>
       </c>
       <c r="B4" t="n">
-        <v>89499</v>
+        <v>77053</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -919,21 +919,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>112</v>
+        <v>6437</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>616775</v>
+        <v>616503</v>
       </c>
       <c r="R4" t="n">
-        <v>7220246</v>
+        <v>7220346</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112379410</v>
+        <v>112379420</v>
       </c>
       <c r="B5" t="n">
         <v>78713</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>616528</v>
+        <v>616535</v>
       </c>
       <c r="R5" t="n">
-        <v>7220271</v>
+        <v>7220125</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112379401</v>
+        <v>112379391</v>
       </c>
       <c r="B6" t="n">
-        <v>94301</v>
+        <v>89499</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1131,21 +1131,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>616593</v>
+        <v>616775</v>
       </c>
       <c r="R6" t="n">
-        <v>7220379</v>
+        <v>7220246</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112379413</v>
+        <v>112379404</v>
       </c>
       <c r="B7" t="n">
-        <v>89553</v>
+        <v>77403</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1237,21 +1237,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616565</v>
+        <v>616559</v>
       </c>
       <c r="R7" t="n">
-        <v>7220210</v>
+        <v>7220391</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112379399</v>
+        <v>112379392</v>
       </c>
       <c r="B8" t="n">
-        <v>90826</v>
+        <v>77650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1339,25 +1339,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616801</v>
+        <v>616797</v>
       </c>
       <c r="R8" t="n">
-        <v>7220436</v>
+        <v>7220278</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112379418</v>
+        <v>112379406</v>
       </c>
       <c r="B9" t="n">
         <v>90113</v>
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>616544</v>
+        <v>616530</v>
       </c>
       <c r="R9" t="n">
-        <v>7220144</v>
+        <v>7220354</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112379416</v>
+        <v>112379399</v>
       </c>
       <c r="B10" t="n">
-        <v>77650</v>
+        <v>90826</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1551,25 +1551,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>616572</v>
+        <v>616801</v>
       </c>
       <c r="R10" t="n">
-        <v>7220163</v>
+        <v>7220436</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112379415</v>
+        <v>112379401</v>
       </c>
       <c r="B11" t="n">
-        <v>78713</v>
+        <v>94301</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1661,21 +1661,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>616569</v>
+        <v>616593</v>
       </c>
       <c r="R11" t="n">
-        <v>7220196</v>
+        <v>7220379</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112379411</v>
+        <v>112379396</v>
       </c>
       <c r="B12" t="n">
-        <v>78713</v>
+        <v>79580</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1767,21 +1767,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>1049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>616537</v>
+        <v>616825</v>
       </c>
       <c r="R12" t="n">
-        <v>7220266</v>
+        <v>7220323</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112379417</v>
+        <v>112379419</v>
       </c>
       <c r="B13" t="n">
-        <v>78746</v>
+        <v>78713</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1869,25 +1869,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>616541</v>
+        <v>616545</v>
       </c>
       <c r="R13" t="n">
-        <v>7220145</v>
+        <v>7220142</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112379409</v>
+        <v>112379414</v>
       </c>
       <c r="B14" t="n">
-        <v>77053</v>
+        <v>78713</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6437</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>616503</v>
+        <v>616567</v>
       </c>
       <c r="R14" t="n">
-        <v>7220346</v>
+        <v>7220205</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112379396</v>
+        <v>112379418</v>
       </c>
       <c r="B15" t="n">
-        <v>79580</v>
+        <v>90113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2081,25 +2081,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1049</v>
+        <v>760</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>616825</v>
+        <v>616544</v>
       </c>
       <c r="R15" t="n">
-        <v>7220323</v>
+        <v>7220144</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112379420</v>
+        <v>112379410</v>
       </c>
       <c r="B17" t="n">
         <v>78713</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>616535</v>
+        <v>616528</v>
       </c>
       <c r="R17" t="n">
-        <v>7220125</v>
+        <v>7220271</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112379406</v>
+        <v>112379412</v>
       </c>
       <c r="B18" t="n">
-        <v>90113</v>
+        <v>89553</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2399,25 +2399,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>760</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>616530</v>
+        <v>616546</v>
       </c>
       <c r="R18" t="n">
-        <v>7220354</v>
+        <v>7220243</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112379407</v>
+        <v>112379415</v>
       </c>
       <c r="B19" t="n">
         <v>78713</v>
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>616516</v>
+        <v>616569</v>
       </c>
       <c r="R19" t="n">
-        <v>7220340</v>
+        <v>7220196</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112379405</v>
+        <v>112379416</v>
       </c>
       <c r="B20" t="n">
-        <v>78242</v>
+        <v>77650</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2615,21 +2615,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>616558</v>
+        <v>616572</v>
       </c>
       <c r="R20" t="n">
-        <v>7220391</v>
+        <v>7220163</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112379397</v>
+        <v>112379411</v>
       </c>
       <c r="B21" t="n">
-        <v>77402</v>
+        <v>78713</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2721,21 +2721,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>616824</v>
+        <v>616537</v>
       </c>
       <c r="R21" t="n">
-        <v>7220321</v>
+        <v>7220266</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112379393</v>
+        <v>112379413</v>
       </c>
       <c r="B22" t="n">
-        <v>89549</v>
+        <v>89553</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2827,21 +2827,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2851,10 +2851,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>616793</v>
+        <v>616565</v>
       </c>
       <c r="R22" t="n">
-        <v>7220301</v>
+        <v>7220210</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112379412</v>
+        <v>112379417</v>
       </c>
       <c r="B23" t="n">
-        <v>89553</v>
+        <v>78746</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2929,25 +2929,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6463</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>616546</v>
+        <v>616541</v>
       </c>
       <c r="R23" t="n">
-        <v>7220243</v>
+        <v>7220145</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112379414</v>
+        <v>112379397</v>
       </c>
       <c r="B24" t="n">
-        <v>78713</v>
+        <v>77402</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3039,21 +3039,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>616567</v>
+        <v>616824</v>
       </c>
       <c r="R24" t="n">
-        <v>7220205</v>
+        <v>7220321</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112379392</v>
+        <v>112379393</v>
       </c>
       <c r="B25" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3145,21 +3145,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3169,10 +3169,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>616797</v>
+        <v>616793</v>
       </c>
       <c r="R25" t="n">
-        <v>7220278</v>
+        <v>7220301</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112379404</v>
+        <v>112379405</v>
       </c>
       <c r="B26" t="n">
-        <v>77403</v>
+        <v>78242</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3251,21 +3251,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>616559</v>
+        <v>616558</v>
       </c>
       <c r="R26" t="n">
         <v>7220391</v>
